--- a/kadr/rp.xlsx
+++ b/kadr/rp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>personal_type_id_x</t>
+          <t>personal_type_id</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -465,11 +465,6 @@
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>personal_type_id_y</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>_merge</t>
         </is>
@@ -478,46 +473,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>32741</t>
+          <t>24122</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>K264</t>
+          <t>8424</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>081</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>32741</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15198</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>K264</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>82000</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F086</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>D45</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>42010</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>90240</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>W015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>

--- a/kadr/rp.xlsx
+++ b/kadr/rp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,21 +473,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24122</t>
+          <t>82000</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8424</t>
+          <t>F086</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>081</t>
+          <t>D45</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -500,21 +500,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>32741</t>
+          <t>43210</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>K264</t>
+          <t>2275</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>548</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -527,21 +527,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>82000</t>
+          <t>61201</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F086</t>
+          <t>V345</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D45</t>
+          <t>041</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -554,17 +554,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>42010</t>
+          <t>90362</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D632</t>
+          <t>X051</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>196</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -580,20 +580,20 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90240</v>
+        <v>90740</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>W015</t>
+          <t>Y682</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>431</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -604,19 +604,600 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="n">
+        <v>90740</v>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15190</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>U804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>U805</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>U806</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>U807</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>U808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>U809</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>U810</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>U811</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>U812</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>U813</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>U814</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>U815</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>U816</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>U817</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>U818</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>U819</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>U820</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>U821</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>U822</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>U823</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>U824</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>U825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>U826</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>left_only</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>90740</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>H575</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>left_only</t>
         </is>
